--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPGA_IP_GIT\python_learning\[4]bodyhealth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77FF26F-7E6C-4E84-A99B-AE5809FB7B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00D630-ED3C-47F7-BBD3-FC4782FDAA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="6580" yWindow="1800" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>2020.1.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.3.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -824,6 +832,16 @@
         <v>41</v>
       </c>
     </row>
+    <row r="42" spans="1:1" ht="16.5">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.5">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00D630-ED3C-47F7-BBD3-FC4782FDAA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C53CE-45CF-444F-859C-1F97AE82B130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="1800" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>2020.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.6.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
@@ -842,6 +850,16 @@
         <v>43</v>
       </c>
     </row>
+    <row r="44" spans="1:1" ht="16.5">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.5">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C53CE-45CF-444F-859C-1F97AE82B130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520FBDA5-D756-476D-8853-EB4E9D719D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>2020.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.7.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -860,6 +864,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="46" spans="1:1" ht="16.5">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520FBDA5-D756-476D-8853-EB4E9D719D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795ABD4D-A5E3-45DE-82EA-8DC8688D6EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>2020.7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.8.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,18 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,142 +652,142 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1">
+    <row r="4" spans="1:3" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" thickBot="1">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1">
+    <row r="6" spans="1:3" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1">
+    <row r="8" spans="1:3" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1">
+    <row r="9" spans="1:3" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
+    <row r="10" spans="1:3" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
+    <row r="11" spans="1:3" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
+    <row r="12" spans="1:3" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
+    <row r="13" spans="1:3" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1">
+    <row r="14" spans="1:3" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1">
+    <row r="16" spans="1:3" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" thickBot="1">
+    <row r="17" spans="1:1" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" thickBot="1">
+    <row r="18" spans="1:1" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" thickBot="1">
+    <row r="19" spans="1:1" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" thickBot="1">
+    <row r="20" spans="1:1" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" thickBot="1">
+    <row r="21" spans="1:1" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" thickBot="1">
+    <row r="22" spans="1:1" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" thickBot="1">
+    <row r="23" spans="1:1" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" thickBot="1">
+    <row r="24" spans="1:1" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" thickBot="1">
+    <row r="25" spans="1:1" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" thickBot="1">
+    <row r="26" spans="1:1" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" thickBot="1">
+    <row r="27" spans="1:1" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" thickBot="1">
+    <row r="28" spans="1:1" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17" thickBot="1">
+    <row r="29" spans="1:1" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -867,6 +875,16 @@
     <row r="46" spans="1:1" ht="16.5">
       <c r="A46" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16.5">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16.5">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795ABD4D-A5E3-45DE-82EA-8DC8688D6EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0854679E-BF5E-4FE5-8ACB-55FA628360AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>2020.8.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.9.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,18 +634,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="14.5" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,142 +656,142 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="17" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1">
+    <row r="4" spans="1:3" ht="17" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1">
+    <row r="5" spans="1:3" ht="17" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+    <row r="7" spans="1:3" ht="17" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1">
+    <row r="8" spans="1:3" ht="17" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1">
+    <row r="10" spans="1:3" ht="17" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1">
+    <row r="11" spans="1:3" ht="17" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1">
+    <row r="14" spans="1:3" ht="17" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+    <row r="15" spans="1:3" ht="17" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1">
+    <row r="16" spans="1:3" ht="17" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17.25" thickBot="1">
+    <row r="17" spans="1:1" ht="17" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.25" thickBot="1">
+    <row r="18" spans="1:1" ht="17" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17.25" thickBot="1">
+    <row r="19" spans="1:1" ht="17" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.25" thickBot="1">
+    <row r="20" spans="1:1" ht="17" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:1" ht="17" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.25" thickBot="1">
+    <row r="22" spans="1:1" ht="17" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.25" thickBot="1">
+    <row r="23" spans="1:1" ht="17" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.25" thickBot="1">
+    <row r="24" spans="1:1" ht="17" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17.25" thickBot="1">
+    <row r="25" spans="1:1" ht="17" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.25" thickBot="1">
+    <row r="26" spans="1:1" ht="17" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" thickBot="1">
+    <row r="27" spans="1:1" ht="17" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.25" thickBot="1">
+    <row r="28" spans="1:1" ht="17" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.25" thickBot="1">
+    <row r="29" spans="1:1" ht="17" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -885,6 +889,11 @@
     <row r="48" spans="1:1" ht="16.5">
       <c r="A48" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16.5">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0854679E-BF5E-4FE5-8ACB-55FA628360AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BDB2B4-FAD3-4FAE-993F-DC220DDE2631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="10060" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>2020.9.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,18 +638,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,142 +660,142 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1">
+    <row r="4" spans="1:3" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" thickBot="1">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1">
+    <row r="6" spans="1:3" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1">
+    <row r="8" spans="1:3" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1">
+    <row r="9" spans="1:3" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
+    <row r="10" spans="1:3" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
+    <row r="11" spans="1:3" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
+    <row r="12" spans="1:3" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
+    <row r="13" spans="1:3" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1">
+    <row r="14" spans="1:3" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1">
+    <row r="16" spans="1:3" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" thickBot="1">
+    <row r="17" spans="1:1" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" thickBot="1">
+    <row r="18" spans="1:1" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" thickBot="1">
+    <row r="19" spans="1:1" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" thickBot="1">
+    <row r="20" spans="1:1" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" thickBot="1">
+    <row r="21" spans="1:1" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" thickBot="1">
+    <row r="22" spans="1:1" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" thickBot="1">
+    <row r="23" spans="1:1" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" thickBot="1">
+    <row r="24" spans="1:1" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" thickBot="1">
+    <row r="25" spans="1:1" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" thickBot="1">
+    <row r="26" spans="1:1" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" thickBot="1">
+    <row r="27" spans="1:1" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" thickBot="1">
+    <row r="28" spans="1:1" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17" thickBot="1">
+    <row r="29" spans="1:1" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -894,6 +898,11 @@
     <row r="49" spans="1:1" ht="16.5">
       <c r="A49" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16.5">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BDB2B4-FAD3-4FAE-993F-DC220DDE2631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88D206-95B0-4B2D-9155-DB2B8BA38CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>2020.10.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.11.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -905,6 +909,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="51" spans="1:1" ht="16.5">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88D206-95B0-4B2D-9155-DB2B8BA38CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C25754-16E1-47F1-B0AC-C71FFBD551F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>2020.11.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.12.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -914,6 +918,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="52" spans="1:1" ht="16.5">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C25754-16E1-47F1-B0AC-C71FFBD551F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBCC859-8D78-46FD-9E76-17D00573A534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>2020.12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -923,6 +927,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="53" spans="1:1" ht="16.5">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBCC859-8D78-46FD-9E76-17D00573A534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F9A0F-BC11-4B43-8EE2-D287B5A68F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>2021.1.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.2.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -932,6 +936,11 @@
         <v>54</v>
       </c>
     </row>
+    <row r="54" spans="1:1" ht="16.5">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4F9A0F-BC11-4B43-8EE2-D287B5A68F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE20745-55E5-41A9-944B-92A884DD2E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="2100" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>2021.2.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.3.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -941,6 +945,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="55" spans="1:1" ht="16.5">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE20745-55E5-41A9-944B-92A884DD2E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F76634-5D7D-4BAB-BAAE-E8699A193FD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,10 @@
   </si>
   <si>
     <t>2021.3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.4.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,18 +662,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="14.5" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,142 +684,142 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" thickBot="1">
+    <row r="2" spans="1:3" ht="17" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1">
+    <row r="3" spans="1:3" ht="17" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1">
+    <row r="4" spans="1:3" ht="17" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1">
+    <row r="5" spans="1:3" ht="17" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1">
+    <row r="6" spans="1:3" ht="17" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+    <row r="7" spans="1:3" ht="17" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1">
+    <row r="8" spans="1:3" ht="17" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" thickBot="1">
+    <row r="9" spans="1:3" ht="17" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1">
+    <row r="10" spans="1:3" ht="17" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1">
+    <row r="11" spans="1:3" ht="17" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1">
+    <row r="14" spans="1:3" ht="17" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+    <row r="15" spans="1:3" ht="17" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1">
+    <row r="16" spans="1:3" ht="17" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17.25" thickBot="1">
+    <row r="17" spans="1:1" ht="17" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17.25" thickBot="1">
+    <row r="18" spans="1:1" ht="17" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17.25" thickBot="1">
+    <row r="19" spans="1:1" ht="17" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.25" thickBot="1">
+    <row r="20" spans="1:1" ht="17" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:1" ht="17" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17.25" thickBot="1">
+    <row r="22" spans="1:1" ht="17" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.25" thickBot="1">
+    <row r="23" spans="1:1" ht="17" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.25" thickBot="1">
+    <row r="24" spans="1:1" ht="17" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17.25" thickBot="1">
+    <row r="25" spans="1:1" ht="17" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.25" thickBot="1">
+    <row r="26" spans="1:1" ht="17" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.25" thickBot="1">
+    <row r="27" spans="1:1" ht="17" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.25" thickBot="1">
+    <row r="28" spans="1:1" ht="17" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.25" thickBot="1">
+    <row r="29" spans="1:1" ht="17" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -948,6 +952,11 @@
     <row r="55" spans="1:1" ht="16.5">
       <c r="A55" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16.5">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F76634-5D7D-4BAB-BAAE-E8699A193FD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7845E5A2-28B1-4DE5-9883-7944170930C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>2021.4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.5.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -959,6 +963,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="57" spans="1:1" ht="16.5">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/img/bodyhealth/妹妹的小日子.xlsx
+++ b/img/bodyhealth/妹妹的小日子.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2】github\kevinzhang0216.github.io\img\bodyhealth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7845E5A2-28B1-4DE5-9883-7944170930C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5763DCC-B471-4DA4-AA12-22E327A02F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1BF4A23-C03A-4241-8958-28E8C10D2F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,14 @@
   </si>
   <si>
     <t>2021.5.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.6.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,18 +674,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F3719-822E-4DB3-AB1A-C17AD2F6E325}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,142 +696,142 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1">
+    <row r="2" spans="1:3" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1">
+    <row r="4" spans="1:3" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" thickBot="1">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1">
+    <row r="6" spans="1:3" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1">
+    <row r="8" spans="1:3" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1">
+    <row r="9" spans="1:3" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
+    <row r="10" spans="1:3" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
+    <row r="11" spans="1:3" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
+    <row r="12" spans="1:3" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
+    <row r="13" spans="1:3" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1">
+    <row r="14" spans="1:3" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1">
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1">
+    <row r="16" spans="1:3" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" thickBot="1">
+    <row r="17" spans="1:1" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" thickBot="1">
+    <row r="18" spans="1:1" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" thickBot="1">
+    <row r="19" spans="1:1" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" thickBot="1">
+    <row r="20" spans="1:1" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" thickBot="1">
+    <row r="21" spans="1:1" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17" thickBot="1">
+    <row r="22" spans="1:1" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17" thickBot="1">
+    <row r="23" spans="1:1" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17" thickBot="1">
+    <row r="24" spans="1:1" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17" thickBot="1">
+    <row r="25" spans="1:1" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17" thickBot="1">
+    <row r="26" spans="1:1" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17" thickBot="1">
+    <row r="27" spans="1:1" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17" thickBot="1">
+    <row r="28" spans="1:1" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17" thickBot="1">
+    <row r="29" spans="1:1" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -966,6 +974,16 @@
     <row r="57" spans="1:1" ht="16.5">
       <c r="A57" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16.5">
+      <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16.5">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
